--- a/Auxilary_Files/Варианты одежды по погоде.xlsx
+++ b/Auxilary_Files/Варианты одежды по погоде.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
   <si>
     <t>жарко</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>шуба</t>
+  </si>
+  <si>
+    <t>нет смысла показывать в рекомендациях</t>
   </si>
 </sst>
 </file>
@@ -209,12 +212,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -244,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,6 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -722,13 +734,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z12"/>
+  <dimension ref="A2:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,30 +957,30 @@
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1007,30 +1019,30 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -1069,30 +1081,30 @@
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -1133,30 +1145,30 @@
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -1195,30 +1207,30 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="6" t="s">
@@ -1257,30 +1269,30 @@
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="6" t="s">
@@ -1319,30 +1331,30 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="6" t="s">
@@ -1399,6 +1411,12 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
